--- a/Blue Shift planning.xlsx
+++ b/Blue Shift planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacqu\Documents\Git\WSOA3003A\Outer-Wilds-Pod-Racer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DE5A16-22F5-432E-8556-B54825F20FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990AEDA3-297F-4970-9DC8-AA05E6B0511B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="127">
   <si>
     <t>Story Points</t>
   </si>
@@ -272,9 +272,6 @@
     <t>Needs Playtesting</t>
   </si>
   <si>
-    <t>dependant on checkpoints</t>
-  </si>
-  <si>
     <t>Task 0</t>
   </si>
   <si>
@@ -323,9 +320,6 @@
     <t>06/05/2024</t>
   </si>
   <si>
-    <t>Waiting for ship model</t>
-  </si>
-  <si>
     <t>13/05/2024</t>
   </si>
   <si>
@@ -405,6 +399,21 @@
   </si>
   <si>
     <t>General UI</t>
+  </si>
+  <si>
+    <t>Removed from game</t>
+  </si>
+  <si>
+    <t>Tutorial Design</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -578,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -853,6 +862,28 @@
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -863,7 +894,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -935,7 +966,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -943,6 +974,12 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
@@ -1165,40 +1202,40 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB59"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="C1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="D1" s="56" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>85</v>
       </c>
       <c r="E1" s="58" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>1</v>
@@ -1233,7 +1270,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1250,7 +1287,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
@@ -1275,7 +1312,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1293,10 +1330,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I4" s="45">
         <v>1</v>
@@ -1306,7 +1343,7 @@
       </c>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
@@ -1324,10 +1361,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I5" s="17">
         <v>0.5</v>
@@ -1337,7 +1374,7 @@
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1355,10 +1392,10 @@
         <v>2</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I6" s="17">
         <v>1</v>
@@ -1368,7 +1405,7 @@
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
@@ -1386,10 +1423,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I7" s="24">
         <v>1</v>
@@ -1399,7 +1436,7 @@
       </c>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="69" t="s">
         <v>17</v>
       </c>
@@ -1422,7 +1459,7 @@
       <c r="J8" s="70"/>
       <c r="K8" s="72"/>
     </row>
-    <row r="9" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -1442,10 +1479,10 @@
         <v>4</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -1455,7 +1492,7 @@
       </c>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
@@ -1475,10 +1512,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="46">
         <v>1</v>
@@ -1488,7 +1525,7 @@
       </c>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>31</v>
       </c>
@@ -1511,7 +1548,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="23"/>
     </row>
-    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
@@ -1519,7 +1556,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>9</v>
@@ -1531,10 +1568,10 @@
         <v>7</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I12" s="6">
         <v>3</v>
@@ -1544,7 +1581,7 @@
       </c>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -1552,7 +1589,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>14</v>
@@ -1564,22 +1601,22 @@
         <v>1</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13" s="4">
         <v>0.5</v>
       </c>
-      <c r="J13" s="61" t="s">
-        <v>86</v>
+      <c r="J13" s="62" t="s">
+        <v>77</v>
       </c>
       <c r="K13" s="48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
@@ -1587,7 +1624,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>12</v>
@@ -1599,10 +1636,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I14" s="4">
         <v>0.5</v>
@@ -1612,7 +1649,7 @@
       </c>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
@@ -1620,7 +1657,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
@@ -1632,20 +1669,20 @@
         <v>3</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" s="48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="I15" s="4">
+        <v>3</v>
+      </c>
+      <c r="J15" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="48"/>
+    </row>
+    <row r="16" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>16</v>
       </c>
@@ -1653,7 +1690,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
@@ -1665,10 +1702,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I16" s="4">
         <v>1</v>
@@ -1678,7 +1715,7 @@
       </c>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>37</v>
       </c>
@@ -1686,7 +1723,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>14</v>
@@ -1698,10 +1735,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="65" t="s">
@@ -1709,7 +1746,7 @@
       </c>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
@@ -1717,7 +1754,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>14</v>
@@ -1729,10 +1766,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="65" t="s">
@@ -1740,7 +1777,7 @@
       </c>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>39</v>
       </c>
@@ -1748,7 +1785,7 @@
         <v>71</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>14</v>
@@ -1760,20 +1797,20 @@
         <v>1</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="65" t="s">
         <v>10</v>
       </c>
       <c r="K19" s="74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
         <v>72</v>
       </c>
@@ -1781,7 +1818,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>12</v>
@@ -1793,10 +1830,10 @@
         <v>3</v>
       </c>
       <c r="G20" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="36" t="s">
         <v>98</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>100</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="65" t="s">
@@ -1804,7 +1841,7 @@
       </c>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>43</v>
       </c>
@@ -1827,7 +1864,7 @@
       <c r="J21" s="26"/>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>8</v>
       </c>
@@ -1835,7 +1872,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>9</v>
@@ -1847,10 +1884,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I22" s="6">
         <v>1</v>
@@ -1860,7 +1897,7 @@
       </c>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>11</v>
       </c>
@@ -1868,7 +1905,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>12</v>
@@ -1880,10 +1917,10 @@
         <v>3</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="65" t="s">
@@ -1891,7 +1928,7 @@
       </c>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>13</v>
       </c>
@@ -1899,7 +1936,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>12</v>
@@ -1911,18 +1948,18 @@
         <v>1</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>15</v>
       </c>
@@ -1930,7 +1967,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
@@ -1942,18 +1979,18 @@
         <v>3</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="65" t="s">
-        <v>10</v>
+      <c r="J25" s="61" t="s">
+        <v>85</v>
       </c>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>16</v>
       </c>
@@ -1961,7 +1998,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>9</v>
@@ -1973,18 +2010,18 @@
         <v>2</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I26" s="24"/>
-      <c r="J26" s="65" t="s">
-        <v>10</v>
+      <c r="J26" s="62" t="s">
+        <v>77</v>
       </c>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>73</v>
       </c>
@@ -2007,15 +2044,15 @@
       <c r="J27" s="28"/>
       <c r="K27" s="29"/>
     </row>
-    <row r="28" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="49" t="s">
-        <v>81</v>
-      </c>
       <c r="C28" s="49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D28" s="49" t="s">
         <v>9</v>
@@ -2027,10 +2064,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H28" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="50">
         <v>1</v>
@@ -2040,7 +2077,7 @@
       </c>
       <c r="K28" s="52"/>
     </row>
-    <row r="29" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>8</v>
       </c>
@@ -2060,18 +2097,20 @@
         <v>8</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J29" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>11</v>
       </c>
@@ -2091,10 +2130,10 @@
         <v>1</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="66" t="s">
@@ -2102,7 +2141,7 @@
       </c>
       <c r="K30" s="13"/>
     </row>
-    <row r="31" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>13</v>
       </c>
@@ -2110,7 +2149,7 @@
         <v>54</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
@@ -2122,18 +2161,20 @@
         <v>2</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="66" t="s">
-        <v>10</v>
+        <v>99</v>
+      </c>
+      <c r="I31" s="4">
+        <v>2</v>
+      </c>
+      <c r="J31" s="60" t="s">
+        <v>77</v>
       </c>
       <c r="K31" s="13"/>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>15</v>
       </c>
@@ -2153,10 +2194,10 @@
         <v>5</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I32" s="24"/>
       <c r="J32" s="66" t="s">
@@ -2164,115 +2205,115 @@
       </c>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
+    <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="67">
+        <v>5</v>
+      </c>
+      <c r="F33" s="67">
+        <v>4</v>
+      </c>
+      <c r="G33" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="67"/>
+      <c r="J33" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="78"/>
+    </row>
+    <row r="34" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B34" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30">
-        <f>SUM(E34:E38)</f>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30">
+        <f>SUM(E35:E39)</f>
         <v>16</v>
       </c>
-      <c r="F33" s="30">
-        <f>SUM(F34:F38)</f>
+      <c r="F34" s="30">
+        <f>SUM(F35:F39)</f>
         <v>12</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="31"/>
-    </row>
-    <row r="34" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="31"/>
+    </row>
+    <row r="35" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C35" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E35" s="6">
         <v>5</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F35" s="6">
         <v>3</v>
       </c>
-      <c r="G34" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="G35" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="13"/>
-    </row>
-    <row r="36" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="C36" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>105</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="66" t="s">
@@ -2280,30 +2321,30 @@
       </c>
       <c r="K36" s="13"/>
     </row>
-    <row r="37" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E37" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="4">
         <v>2</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="66" t="s">
@@ -2311,179 +2352,179 @@
       </c>
       <c r="K37" s="13"/>
     </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+    <row r="38" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B39" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="19" t="s">
+      <c r="C39" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E39" s="24">
         <v>5</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F39" s="24">
         <v>4</v>
       </c>
-      <c r="G38" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="66" t="s">
+      <c r="G39" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" s="24"/>
+      <c r="J39" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B40" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34">
-        <f>SUM(E40:E44)</f>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34">
+        <f>SUM(E41:E45)</f>
         <v>11</v>
       </c>
-      <c r="F39" s="34">
-        <f>SUM(F40:F44)</f>
+      <c r="F40" s="34">
+        <f>SUM(F41:F45)</f>
         <v>9</v>
       </c>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="35"/>
-    </row>
-    <row r="40" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="35"/>
+    </row>
+    <row r="41" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B41" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C41" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="6">
-        <v>1</v>
-      </c>
-      <c r="F40" s="6">
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
         <v>2</v>
       </c>
-      <c r="G40" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="66" t="s">
+      <c r="G41" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K40" s="11"/>
-    </row>
-    <row r="41" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B42" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="C42" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="K41" s="48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B43" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="4">
-        <v>3</v>
-      </c>
-      <c r="F42" s="4">
-        <v>2</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="13"/>
-    </row>
-    <row r="43" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>68</v>
-      </c>
       <c r="C43" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="66" t="s">
@@ -2491,227 +2532,260 @@
       </c>
       <c r="K43" s="13"/>
     </row>
-    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+    <row r="44" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B45" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="19" t="s">
+      <c r="C45" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E45" s="24">
         <v>5</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F45" s="24">
         <v>3</v>
       </c>
-      <c r="G44" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="H44" s="36" t="s">
+      <c r="G45" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="I45" s="24"/>
+      <c r="J45" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="K45" s="74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38">
+        <f>SUM(E47:E50)</f>
+        <v>29</v>
+      </c>
+      <c r="F46" s="38">
+        <f>SUM(F47:F50)</f>
+        <v>14</v>
+      </c>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="39"/>
+    </row>
+    <row r="47" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="6">
+        <v>8</v>
+      </c>
+      <c r="F47" s="6">
+        <v>4</v>
+      </c>
+      <c r="G47" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="K44" s="74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38">
-        <f>SUM(E46:E49)</f>
-        <v>29</v>
-      </c>
-      <c r="F45" s="38">
-        <f>SUM(F46:F49)</f>
-        <v>14</v>
-      </c>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="39"/>
-    </row>
-    <row r="46" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="6">
-        <v>8</v>
-      </c>
-      <c r="F46" s="6">
-        <v>4</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="H46" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="I46" s="6"/>
-      <c r="J46" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="11"/>
-    </row>
-    <row r="47" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="4">
-        <v>13</v>
-      </c>
-      <c r="F47" s="4">
-        <v>6</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="I47" s="4"/>
+      <c r="H47" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I47" s="6"/>
       <c r="J47" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="13"/>
-    </row>
-    <row r="48" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="4">
         <v>13</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="F48" s="4">
+        <v>6</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="C49" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E49" s="4">
         <v>3</v>
       </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="K48" s="48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I49" s="4">
+        <v>3</v>
+      </c>
+      <c r="J49" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" s="48"/>
+    </row>
+    <row r="50" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B50" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="19" t="s">
+      <c r="C50" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E50" s="24">
         <v>5</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F50" s="24">
         <v>3</v>
       </c>
-      <c r="G49" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="I49" s="24"/>
-      <c r="J49" s="66" t="s">
+      <c r="G50" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="I50" s="24"/>
+      <c r="J50" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K49" s="20"/>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="53" t="s">
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="55"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="55"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D54" s="2"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
       <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D4:D7 D9:D10 D22:D26 D12:D20 D29:D32 D34:D38 D40:D44 D46:D49 D51:D54" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D4:D7 D9:D10 D22:D26 D12:D20 D29:D33 D35:D39 D41:D45 D47:D50 D52:D55" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
